--- a/Source/Tam/Maestro/UI/BroadcastComposerWeb/App_Data/Template - Affiliate Availability Per Market.xlsx
+++ b/Source/Tam/Maestro/UI/BroadcastComposerWeb/App_Data/Template - Affiliate Availability Per Market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569DBFF-5745-4983-BF05-6704CE136BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A12902A-2575-4D7E-96A3-BC0FD7B3C0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{45F630EB-55FA-4C2F-9A4B-18B8D3469294}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" activeTab="1" xr2:uid="{45F630EB-55FA-4C2F-9A4B-18B8D3469294}"/>
   </bookViews>
   <sheets>
     <sheet name="News" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Market</t>
   </si>
@@ -47,43 +47,13 @@
     <t>Affiliate</t>
   </si>
   <si>
-    <t>Inventory Y/N</t>
-  </si>
-  <si>
-    <t>Aggregate</t>
-  </si>
-  <si>
     <t>Affiliate Availability Per Market</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Inventory Yes/No</t>
   </si>
   <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Aggregate Yes/No</t>
   </si>
 </sst>
 </file>
@@ -132,7 +102,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,6 +125,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -162,15 +141,22 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -201,9 +187,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1724025" cy="314325"/>
@@ -226,7 +212,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="520700" y="120650"/>
+          <a:off x="606425" y="311150"/>
           <a:ext cx="1724025" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -244,10 +230,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1724025" cy="314325"/>
     <xdr:pic>
@@ -269,7 +255,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1063625" y="254000"/>
+          <a:off x="606425" y="311150"/>
           <a:ext cx="1724025" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -583,225 +569,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="6" width="31" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="3" customWidth="1"/>
+    <col min="4" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="2:6" ht="31" x14ac:dyDescent="0.7">
+      <c r="B2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -814,225 +631,56 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:G16"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="7" width="31" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="3" customWidth="1"/>
+    <col min="4" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="3:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="2:6" ht="31" x14ac:dyDescent="0.7">
+      <c r="B2" s="5"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
